--- a/biology/Botanique/Fumeterre_officinale/Fumeterre_officinale.xlsx
+++ b/biology/Botanique/Fumeterre_officinale/Fumeterre_officinale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fumaria officinalis
-La Fumeterre officinale ou Pied-de-Céline (Fumaria officinalis) est une plante herbacée de la famille des Fumariacées selon la classification classique de Cronquist (1981)[1] ou des Papavéracées selon la classification phylogénétique APG III (2009)[2].
+La Fumeterre officinale ou Pied-de-Céline (Fumaria officinalis) est une plante herbacée de la famille des Fumariacées selon la classification classique de Cronquist (1981) ou des Papavéracées selon la classification phylogénétique APG III (2009).
 </t>
         </is>
       </c>
@@ -512,13 +524,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La Fumeterre officinale est la seule Papaveraceae à ne pas présenter de latex à la cassure. Herbacée rudérale annuelle, elle possède des feuilles pennatiséquées et ses fleurs zygomorphes sont de couleur rose pourpre. Le fruit est un akène.
-La floraison a lieu de février à avril[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Fumeterre officinale est la seule Papaveraceae à ne pas présenter de latex à la cassure. Herbacée rudérale annuelle, elle possède des feuilles pennatiséquées et ses fleurs zygomorphes sont de couleur rose pourpre. Le fruit est un akène.
+La floraison a lieu de février à avril.
 			Port de la plante
 			Inflorescence
-Composants</t>
+</t>
         </is>
       </c>
     </row>
@@ -546,10 +560,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente dans tout le bassin méditerranéen[3].
-La fumeterre officinale peut se rencontrer dans les cultures et dans les friches sur sols secs et découverts[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente dans tout le bassin méditerranéen.
+La fumeterre officinale peut se rencontrer dans les cultures et dans les friches sur sols secs et découverts.
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Pharmacopée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Partie utilisée : sommités fleuries
 Mode d'emploi : décoction, infusion.
